--- a/StructureDefinition-htmlElementLink.xlsx
+++ b/StructureDefinition-htmlElementLink.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-htmlElementLink.xlsx
+++ b/StructureDefinition-htmlElementLink.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-htmlElementLink.xlsx
+++ b/StructureDefinition-htmlElementLink.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-htmlElementLink.xlsx
+++ b/StructureDefinition-htmlElementLink.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T13:49:45+00:00</t>
+    <t>2023-04-06T08:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
